--- a/Liver-Histology-Blood/RankZ/RankZ-sexgen/results/Liver-Histology-QTL-List-RankZ sexgen.xlsx
+++ b/Liver-Histology-Blood/RankZ/RankZ-sexgen/results/Liver-Histology-QTL-List-RankZ sexgen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beccagould/Rqtl2-Glutathione-Genetics/Liver-Histology-Blood/RankZ/RankZ-sexgen/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84886F44-2A19-5140-A613-ECD2A875F7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA8EC79-BECC-7945-B3D7-ADBDDCAAACFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="500" windowWidth="18860" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13640" yWindow="500" windowWidth="15160" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QTL List RankZ SexGen" sheetId="1" r:id="rId1"/>
@@ -777,34 +777,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="7" width="8.83203125" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
       <c r="N1" s="19" t="s">
         <v>54</v>
       </c>
@@ -828,26 +827,26 @@
       <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>6</v>
       </c>
       <c r="N2" s="20"/>
     </row>
@@ -862,34 +861,34 @@
         <v>9</v>
       </c>
       <c r="D3" s="3">
-        <v>9.1769999999999996</v>
+        <v>12.199954</v>
       </c>
       <c r="E3" s="3">
         <v>7.4437812307378763</v>
       </c>
       <c r="F3" s="3">
+        <v>10.653264999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>13.057076</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3">
+        <v>9.1769999999999996</v>
+      </c>
+      <c r="J3" s="3">
+        <v>7.4437812307378763</v>
+      </c>
+      <c r="K3" s="3">
         <v>8.0719999999999992</v>
       </c>
-      <c r="G3" s="3">
+      <c r="L3" s="3">
         <v>9.718</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3">
-        <v>12.199954</v>
-      </c>
-      <c r="K3" s="3">
-        <v>7.4437812307378763</v>
-      </c>
-      <c r="L3" s="3">
-        <v>10.653264999999999</v>
-      </c>
-      <c r="M3" s="4">
-        <v>13.057076</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>62</v>
@@ -906,34 +905,34 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>34.262999999999998</v>
+        <v>57.518003</v>
       </c>
       <c r="E4" s="3">
         <v>7.8082821121914234</v>
       </c>
       <c r="F4" s="3">
+        <v>57.069102999999998</v>
+      </c>
+      <c r="G4" s="4">
+        <v>59.755287000000003</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3">
+        <v>34.262999999999998</v>
+      </c>
+      <c r="J4" s="3">
+        <v>7.8082821121914234</v>
+      </c>
+      <c r="K4" s="3">
         <v>34.19</v>
       </c>
-      <c r="G4" s="3">
+      <c r="L4" s="3">
         <v>35.267000000000003</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="3">
-        <v>57.518003</v>
-      </c>
-      <c r="K4" s="3">
-        <v>7.8082821121914234</v>
-      </c>
-      <c r="L4" s="3">
-        <v>57.069102999999998</v>
-      </c>
-      <c r="M4" s="4">
-        <v>59.755287000000003</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>55</v>
@@ -950,34 +949,34 @@
         <v>14</v>
       </c>
       <c r="D5" s="3">
-        <v>66.662999999999997</v>
+        <v>134.29535300000001</v>
       </c>
       <c r="E5" s="3">
         <v>6.2060879814241039</v>
       </c>
       <c r="F5" s="3">
+        <v>132.96993800000001</v>
+      </c>
+      <c r="G5" s="4">
+        <v>135.609002</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3">
+        <v>66.662999999999997</v>
+      </c>
+      <c r="J5" s="3">
+        <v>6.2060879814241039</v>
+      </c>
+      <c r="K5" s="3">
         <v>66.128</v>
       </c>
-      <c r="G5" s="3">
+      <c r="L5" s="3">
         <v>67.843999999999994</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="3">
-        <v>134.29535300000001</v>
-      </c>
-      <c r="K5" s="3">
-        <v>6.2060879814241039</v>
-      </c>
-      <c r="L5" s="3">
-        <v>132.96993800000001</v>
-      </c>
-      <c r="M5" s="4">
-        <v>135.609002</v>
       </c>
       <c r="N5" s="11" t="s">
         <v>64</v>
@@ -994,34 +993,34 @@
         <v>16</v>
       </c>
       <c r="D6" s="3">
-        <v>25.922999999999998</v>
+        <v>50.061343999999998</v>
       </c>
       <c r="E6" s="3">
         <v>6.0008139436509111</v>
       </c>
       <c r="F6" s="3">
+        <v>48.896780999999997</v>
+      </c>
+      <c r="G6" s="4">
+        <v>55.654756999999996</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3">
+        <v>25.922999999999998</v>
+      </c>
+      <c r="J6" s="3">
+        <v>6.0008139436509111</v>
+      </c>
+      <c r="K6" s="3">
         <v>25.401</v>
       </c>
-      <c r="G6" s="3">
+      <c r="L6" s="3">
         <v>28.103000000000002</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="3">
-        <v>50.061343999999998</v>
-      </c>
-      <c r="K6" s="3">
-        <v>6.0008139436509111</v>
-      </c>
-      <c r="L6" s="3">
-        <v>48.896780999999997</v>
-      </c>
-      <c r="M6" s="4">
-        <v>55.654756999999996</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>60</v>
@@ -1038,34 +1037,34 @@
         <v>19</v>
       </c>
       <c r="D7" s="3">
-        <v>75.185000000000002</v>
+        <v>111.241337</v>
       </c>
       <c r="E7" s="3">
         <v>6.6799967574650658</v>
       </c>
       <c r="F7" s="3">
+        <v>111.00945299999999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>111.27947899999999</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="3">
+        <v>75.185000000000002</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6.6799967574650658</v>
+      </c>
+      <c r="K7" s="3">
         <v>74.680999999999997</v>
       </c>
-      <c r="G7" s="3">
+      <c r="L7" s="3">
         <v>75.23</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="3">
-        <v>111.241337</v>
-      </c>
-      <c r="K7" s="3">
-        <v>6.6799967574650658</v>
-      </c>
-      <c r="L7" s="3">
-        <v>111.00945299999999</v>
-      </c>
-      <c r="M7" s="4">
-        <v>111.27947899999999</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>58</v>
@@ -1082,34 +1081,34 @@
         <v>19</v>
       </c>
       <c r="D8" s="3">
-        <v>76.03</v>
+        <v>112.468538</v>
       </c>
       <c r="E8" s="3">
         <v>6.2971517007734157</v>
       </c>
       <c r="F8" s="3">
+        <v>112.417087</v>
+      </c>
+      <c r="G8" s="4">
+        <v>112.56831099999999</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3">
+        <v>76.03</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6.2971517007734157</v>
+      </c>
+      <c r="K8" s="3">
         <v>75.921000000000006</v>
       </c>
-      <c r="G8" s="3">
+      <c r="L8" s="3">
         <v>76.353999999999999</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="3">
-        <v>112.468538</v>
-      </c>
-      <c r="K8" s="3">
-        <v>6.2971517007734157</v>
-      </c>
-      <c r="L8" s="3">
-        <v>112.417087</v>
-      </c>
-      <c r="M8" s="4">
-        <v>112.56831099999999</v>
       </c>
       <c r="N8" s="11" t="s">
         <v>59</v>
@@ -1126,34 +1125,34 @@
         <v>22</v>
       </c>
       <c r="D9" s="3">
-        <v>10.356999999999999</v>
+        <v>17.065031999999999</v>
       </c>
       <c r="E9" s="3">
         <v>8.7747922271080174</v>
       </c>
       <c r="F9" s="3">
+        <v>16.841981000000001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>17.710239999999999</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10.356999999999999</v>
+      </c>
+      <c r="J9" s="3">
+        <v>8.7747922271080174</v>
+      </c>
+      <c r="K9" s="3">
         <v>10.24</v>
       </c>
-      <c r="G9" s="3">
+      <c r="L9" s="3">
         <v>10.522</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="3">
-        <v>17.065031999999999</v>
-      </c>
-      <c r="K9" s="3">
-        <v>8.7747922271080174</v>
-      </c>
-      <c r="L9" s="3">
-        <v>16.841981000000001</v>
-      </c>
-      <c r="M9" s="4">
-        <v>17.710239999999999</v>
       </c>
       <c r="N9" s="11" t="s">
         <v>55</v>
@@ -1170,34 +1169,34 @@
         <v>22</v>
       </c>
       <c r="D10" s="3">
-        <v>34.167000000000002</v>
+        <v>59.618988999999999</v>
       </c>
       <c r="E10" s="3">
         <v>6.5403580618936781</v>
       </c>
       <c r="F10" s="3">
+        <v>58.499299999999998</v>
+      </c>
+      <c r="G10" s="4">
+        <v>69.153327000000004</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="3">
+        <v>34.167000000000002</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6.5403580618936781</v>
+      </c>
+      <c r="K10" s="3">
         <v>33.267000000000003</v>
       </c>
-      <c r="G10" s="3">
+      <c r="L10" s="3">
         <v>42.902999999999999</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="3">
-        <v>59.618988999999999</v>
-      </c>
-      <c r="K10" s="3">
-        <v>6.5403580618936781</v>
-      </c>
-      <c r="L10" s="3">
-        <v>58.499299999999998</v>
-      </c>
-      <c r="M10" s="4">
-        <v>69.153327000000004</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>61</v>
@@ -1214,34 +1213,34 @@
         <v>25</v>
       </c>
       <c r="D11" s="3">
-        <v>28.170999999999999</v>
+        <v>51.515338</v>
       </c>
       <c r="E11" s="3">
         <v>7.2660969746620676</v>
       </c>
       <c r="F11" s="3">
+        <v>47.371825000000001</v>
+      </c>
+      <c r="G11" s="4">
+        <v>51.837681000000003</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="3">
+        <v>28.170999999999999</v>
+      </c>
+      <c r="J11" s="3">
+        <v>7.2660969746620676</v>
+      </c>
+      <c r="K11" s="3">
         <v>24.945</v>
       </c>
-      <c r="G11" s="3">
+      <c r="L11" s="3">
         <v>28.295000000000002</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="3">
-        <v>51.515338</v>
-      </c>
-      <c r="K11" s="3">
-        <v>7.2660969746620676</v>
-      </c>
-      <c r="L11" s="3">
-        <v>47.371825000000001</v>
-      </c>
-      <c r="M11" s="4">
-        <v>51.837681000000003</v>
       </c>
       <c r="N11" s="13" t="s">
         <v>63</v>
@@ -1258,34 +1257,34 @@
         <v>28</v>
       </c>
       <c r="D12" s="3">
-        <v>15.428000000000001</v>
+        <v>36.106071</v>
       </c>
       <c r="E12" s="3">
         <v>6.371435058275444</v>
       </c>
       <c r="F12" s="3">
+        <v>35.897030000000001</v>
+      </c>
+      <c r="G12" s="4">
+        <v>142.65812399999999</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3">
+        <v>15.428000000000001</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6.371435058275444</v>
+      </c>
+      <c r="K12" s="3">
         <v>15.372999999999999</v>
       </c>
-      <c r="G12" s="3">
+      <c r="L12" s="3">
         <v>74.477999999999994</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="3">
-        <v>36.106071</v>
-      </c>
-      <c r="K12" s="3">
-        <v>6.371435058275444</v>
-      </c>
-      <c r="L12" s="3">
-        <v>35.897030000000001</v>
-      </c>
-      <c r="M12" s="4">
-        <v>142.65812399999999</v>
       </c>
       <c r="N12" s="11" t="s">
         <v>58</v>
@@ -1302,34 +1301,34 @@
         <v>9</v>
       </c>
       <c r="D13" s="3">
-        <v>30.303000000000001</v>
+        <v>52.838560000000001</v>
       </c>
       <c r="E13" s="3">
         <v>6.4230023910786889</v>
       </c>
       <c r="F13" s="3">
+        <v>52.182566000000001</v>
+      </c>
+      <c r="G13" s="4">
+        <v>158.26826600000001</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="3">
+        <v>30.303000000000001</v>
+      </c>
+      <c r="J13" s="3">
+        <v>6.4230023910786889</v>
+      </c>
+      <c r="K13" s="3">
         <v>30.018000000000001</v>
       </c>
-      <c r="G13" s="3">
+      <c r="L13" s="3">
         <v>78.67</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="3">
-        <v>52.838560000000001</v>
-      </c>
-      <c r="K13" s="3">
-        <v>6.4230023910786889</v>
-      </c>
-      <c r="L13" s="3">
-        <v>52.182566000000001</v>
-      </c>
-      <c r="M13" s="4">
-        <v>158.26826600000001</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>58</v>
@@ -1346,34 +1345,34 @@
         <v>14</v>
       </c>
       <c r="D14" s="3">
-        <v>20.126000000000001</v>
+        <v>39.397576999999998</v>
       </c>
       <c r="E14" s="3">
         <v>6.6569288953764278</v>
       </c>
       <c r="F14" s="3">
+        <v>38.080964000000002</v>
+      </c>
+      <c r="G14" s="4">
+        <v>39.969380999999998</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="3">
+        <v>20.126000000000001</v>
+      </c>
+      <c r="J14" s="3">
+        <v>6.6569288953764278</v>
+      </c>
+      <c r="K14" s="3">
         <v>19.898</v>
       </c>
-      <c r="G14" s="3">
+      <c r="L14" s="3">
         <v>20.222999999999999</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="3">
-        <v>39.397576999999998</v>
-      </c>
-      <c r="K14" s="3">
-        <v>6.6569288953764278</v>
-      </c>
-      <c r="L14" s="3">
-        <v>38.080964000000002</v>
-      </c>
-      <c r="M14" s="4">
-        <v>39.969380999999998</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>56</v>
@@ -1390,34 +1389,34 @@
         <v>33</v>
       </c>
       <c r="D15" s="3">
-        <v>39.679000000000002</v>
+        <v>79.526889999999995</v>
       </c>
       <c r="E15" s="3">
         <v>6.0998078508088591</v>
       </c>
       <c r="F15" s="3">
+        <v>77.821957999999995</v>
+      </c>
+      <c r="G15" s="4">
+        <v>80.377101999999994</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="3">
+        <v>39.679000000000002</v>
+      </c>
+      <c r="J15" s="3">
+        <v>6.0998078508088591</v>
+      </c>
+      <c r="K15" s="3">
         <v>39.216999999999999</v>
       </c>
-      <c r="G15" s="3">
+      <c r="L15" s="3">
         <v>39.923999999999999</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="3">
-        <v>79.526889999999995</v>
-      </c>
-      <c r="K15" s="3">
-        <v>6.0998078508088591</v>
-      </c>
-      <c r="L15" s="3">
-        <v>77.821957999999995</v>
-      </c>
-      <c r="M15" s="4">
-        <v>80.377101999999994</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>59</v>
@@ -1434,34 +1433,34 @@
         <v>19</v>
       </c>
       <c r="D16" s="3">
+        <v>39.662354000000001</v>
+      </c>
+      <c r="E16" s="3">
+        <v>7.7988027814110144</v>
+      </c>
+      <c r="F16" s="3">
+        <v>38.769475999999997</v>
+      </c>
+      <c r="G16" s="4">
+        <v>39.667886000000003</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="3">
         <v>23.998999999999999</v>
       </c>
-      <c r="E16" s="3">
+      <c r="J16" s="3">
         <v>7.7988027814110099</v>
       </c>
-      <c r="F16" s="3">
+      <c r="K16" s="3">
         <v>23.661999999999999</v>
       </c>
-      <c r="G16" s="3">
+      <c r="L16" s="3">
         <v>24.001999999999999</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="3">
-        <v>39.662354000000001</v>
-      </c>
-      <c r="K16" s="3">
-        <v>7.7988027814110144</v>
-      </c>
-      <c r="L16" s="3">
-        <v>38.769475999999997</v>
-      </c>
-      <c r="M16" s="4">
-        <v>39.667886000000003</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>55</v>
@@ -1478,34 +1477,34 @@
         <v>36</v>
       </c>
       <c r="D17" s="3">
-        <v>36.314999999999998</v>
+        <v>79.848926000000006</v>
       </c>
       <c r="E17" s="3">
         <v>6.5923312267613374</v>
       </c>
       <c r="F17" s="3">
+        <v>78.342281</v>
+      </c>
+      <c r="G17" s="4">
+        <v>83.323700000000002</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="3">
+        <v>36.314999999999998</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6.5923312267613374</v>
+      </c>
+      <c r="K17" s="3">
         <v>35.524000000000001</v>
       </c>
-      <c r="G17" s="3">
+      <c r="L17" s="3">
         <v>38.552999999999997</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="3">
-        <v>79.848926000000006</v>
-      </c>
-      <c r="K17" s="3">
-        <v>6.5923312267613374</v>
-      </c>
-      <c r="L17" s="3">
-        <v>78.342281</v>
-      </c>
-      <c r="M17" s="4">
-        <v>83.323700000000002</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>57</v>
@@ -1522,34 +1521,34 @@
         <v>11</v>
       </c>
       <c r="D18" s="3">
-        <v>37.585999999999999</v>
+        <v>66.050545</v>
       </c>
       <c r="E18" s="3">
         <v>6.0277362796841967</v>
       </c>
       <c r="F18" s="3">
+        <v>65.300760999999994</v>
+      </c>
+      <c r="G18" s="4">
+        <v>66.886177000000004</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="3">
+        <v>37.585999999999999</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6.0277362796841967</v>
+      </c>
+      <c r="K18" s="3">
         <v>37.179000000000002</v>
       </c>
-      <c r="G18" s="3">
+      <c r="L18" s="3">
         <v>38.317</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="3">
-        <v>66.050545</v>
-      </c>
-      <c r="K18" s="3">
-        <v>6.0277362796841967</v>
-      </c>
-      <c r="L18" s="3">
-        <v>65.300760999999994</v>
-      </c>
-      <c r="M18" s="4">
-        <v>66.886177000000004</v>
       </c>
       <c r="N18" s="11" t="s">
         <v>60</v>
@@ -1566,34 +1565,34 @@
         <v>14</v>
       </c>
       <c r="D19" s="3">
-        <v>20.126000000000001</v>
+        <v>39.397576999999998</v>
       </c>
       <c r="E19" s="3">
         <v>6.3084963744424947</v>
       </c>
       <c r="F19" s="3">
+        <v>38.080964000000002</v>
+      </c>
+      <c r="G19" s="4">
+        <v>46.544552000000003</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="3">
+        <v>20.126000000000001</v>
+      </c>
+      <c r="J19" s="3">
+        <v>6.3084963744424947</v>
+      </c>
+      <c r="K19" s="3">
         <v>19.898</v>
       </c>
-      <c r="G19" s="3">
+      <c r="L19" s="3">
         <v>24.885999999999999</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="M19" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="3">
-        <v>39.397576999999998</v>
-      </c>
-      <c r="K19" s="3">
-        <v>6.3084963744424947</v>
-      </c>
-      <c r="L19" s="3">
-        <v>38.080964000000002</v>
-      </c>
-      <c r="M19" s="4">
-        <v>46.544552000000003</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>61</v>
@@ -1610,34 +1609,34 @@
         <v>40</v>
       </c>
       <c r="D20" s="3">
-        <v>87.837000000000003</v>
+        <v>142.32629499999999</v>
       </c>
       <c r="E20" s="3">
         <v>6.06980486267845</v>
       </c>
       <c r="F20" s="3">
+        <v>44.815272999999998</v>
+      </c>
+      <c r="G20" s="4">
+        <v>144.18046899999999</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="3">
+        <v>87.837000000000003</v>
+      </c>
+      <c r="J20" s="3">
+        <v>6.06980486267845</v>
+      </c>
+      <c r="K20" s="3">
         <v>28.931000000000001</v>
       </c>
-      <c r="G20" s="3">
+      <c r="L20" s="3">
         <v>88.546000000000006</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="3">
-        <v>142.32629499999999</v>
-      </c>
-      <c r="K20" s="3">
-        <v>6.06980486267845</v>
-      </c>
-      <c r="L20" s="3">
-        <v>44.815272999999998</v>
-      </c>
-      <c r="M20" s="4">
-        <v>144.18046899999999</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>60</v>
@@ -1654,34 +1653,34 @@
         <v>19</v>
       </c>
       <c r="D21" s="3">
-        <v>37.255000000000003</v>
+        <v>59.252847000000003</v>
       </c>
       <c r="E21" s="3">
         <v>6.3975341723741046</v>
       </c>
       <c r="F21" s="3">
+        <v>38.841178999999997</v>
+      </c>
+      <c r="G21" s="4">
+        <v>117.09952</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="3">
+        <v>37.255000000000003</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6.3975341723741046</v>
+      </c>
+      <c r="K21" s="3">
         <v>23.67</v>
       </c>
-      <c r="G21" s="3">
+      <c r="L21" s="3">
         <v>81.909000000000006</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="M21" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="3">
-        <v>59.252847000000003</v>
-      </c>
-      <c r="K21" s="3">
-        <v>6.3975341723741046</v>
-      </c>
-      <c r="L21" s="3">
-        <v>38.841178999999997</v>
-      </c>
-      <c r="M21" s="4">
-        <v>117.09952</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>58</v>
@@ -1698,34 +1697,34 @@
         <v>36</v>
       </c>
       <c r="D22" s="3">
-        <v>5.8170000000000002</v>
+        <v>12.613403</v>
       </c>
       <c r="E22" s="3">
         <v>6.3593683748290362</v>
       </c>
       <c r="F22" s="3">
+        <v>11.538853</v>
+      </c>
+      <c r="G22" s="4">
+        <v>51.459167000000001</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5.8170000000000002</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6.3593683748290362</v>
+      </c>
+      <c r="K22" s="3">
         <v>5.5720000000000001</v>
       </c>
-      <c r="G22" s="3">
+      <c r="L22" s="3">
         <v>22.103000000000002</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="M22" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="3">
-        <v>12.613403</v>
-      </c>
-      <c r="K22" s="3">
-        <v>6.3593683748290362</v>
-      </c>
-      <c r="L22" s="3">
-        <v>11.538853</v>
-      </c>
-      <c r="M22" s="4">
-        <v>51.459167000000001</v>
       </c>
       <c r="N22" s="11" t="s">
         <v>61</v>
@@ -1742,34 +1741,34 @@
         <v>45</v>
       </c>
       <c r="D23" s="3">
-        <v>32.018999999999998</v>
+        <v>59.414599000000003</v>
       </c>
       <c r="E23" s="3">
         <v>6.0430114931294314</v>
       </c>
       <c r="F23" s="3">
+        <v>57.914845999999997</v>
+      </c>
+      <c r="G23" s="4">
+        <v>109.01803099999999</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="3">
+        <v>32.018999999999998</v>
+      </c>
+      <c r="J23" s="3">
+        <v>6.0430114931294314</v>
+      </c>
+      <c r="K23" s="3">
         <v>31.497</v>
       </c>
-      <c r="G23" s="3">
+      <c r="L23" s="3">
         <v>59.634999999999998</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="3">
-        <v>59.414599000000003</v>
-      </c>
-      <c r="K23" s="3">
-        <v>6.0430114931294314</v>
-      </c>
-      <c r="L23" s="3">
-        <v>57.914845999999997</v>
-      </c>
-      <c r="M23" s="4">
-        <v>109.01803099999999</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>59</v>
@@ -1786,34 +1785,34 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>56.264960000000002</v>
+      </c>
+      <c r="E24" s="3">
+        <v>9.9419361652661848</v>
+      </c>
+      <c r="F24" s="3">
+        <v>55.464598000000002</v>
+      </c>
+      <c r="G24" s="4">
+        <v>56.970080000000003</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="3">
         <v>33.539000000000001</v>
       </c>
-      <c r="E24" s="3">
+      <c r="J24" s="3">
         <v>9.9419361652661795</v>
       </c>
-      <c r="F24" s="3">
+      <c r="K24" s="3">
         <v>33.085000000000001</v>
       </c>
-      <c r="G24" s="3">
+      <c r="L24" s="3">
         <v>34.456000000000003</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="3">
-        <v>56.264960000000002</v>
-      </c>
-      <c r="K24" s="3">
-        <v>9.9419361652661848</v>
-      </c>
-      <c r="L24" s="3">
-        <v>55.464598000000002</v>
-      </c>
-      <c r="M24" s="4">
-        <v>56.970080000000003</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>55</v>
@@ -1830,34 +1829,34 @@
         <v>36</v>
       </c>
       <c r="D25" s="3">
+        <v>112.648528</v>
+      </c>
+      <c r="E25" s="3">
+        <v>7.5439727666043792</v>
+      </c>
+      <c r="F25" s="3">
+        <v>112.538493</v>
+      </c>
+      <c r="G25" s="4">
+        <v>113.097515</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="3">
         <v>61.204999999999998</v>
       </c>
-      <c r="E25" s="3">
+      <c r="J25" s="3">
         <v>7.5439727666043801</v>
       </c>
-      <c r="F25" s="3">
+      <c r="K25" s="3">
         <v>61.186999999999998</v>
       </c>
-      <c r="G25" s="3">
+      <c r="L25" s="3">
         <v>61.603000000000002</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="3">
-        <v>112.648528</v>
-      </c>
-      <c r="K25" s="3">
-        <v>7.5439727666043792</v>
-      </c>
-      <c r="L25" s="3">
-        <v>112.538493</v>
-      </c>
-      <c r="M25" s="4">
-        <v>113.097515</v>
       </c>
       <c r="N25" s="11" t="s">
         <v>62</v>
@@ -1874,34 +1873,34 @@
         <v>16</v>
       </c>
       <c r="D26" s="3">
-        <v>57.543999999999997</v>
+        <v>111.030179</v>
       </c>
       <c r="E26" s="3">
         <v>6.8162323315097106</v>
       </c>
       <c r="F26" s="3">
+        <v>108.66535500000001</v>
+      </c>
+      <c r="G26" s="4">
+        <v>112.71422800000001</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="3">
+        <v>57.543999999999997</v>
+      </c>
+      <c r="J26" s="3">
+        <v>6.8162323315097106</v>
+      </c>
+      <c r="K26" s="3">
         <v>56.575000000000003</v>
       </c>
-      <c r="G26" s="3">
+      <c r="L26" s="3">
         <v>58.186</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="M26" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="3">
-        <v>111.030179</v>
-      </c>
-      <c r="K26" s="3">
-        <v>6.8162323315097106</v>
-      </c>
-      <c r="L26" s="3">
-        <v>108.66535500000001</v>
-      </c>
-      <c r="M26" s="4">
-        <v>112.71422800000001</v>
       </c>
       <c r="N26" s="11" t="s">
         <v>63</v>
@@ -1918,34 +1917,34 @@
         <v>50</v>
       </c>
       <c r="D27" s="6">
-        <v>43.8</v>
+        <v>71.869119999999995</v>
       </c>
       <c r="E27" s="6">
         <v>6.1651610625553728</v>
       </c>
       <c r="F27" s="6">
+        <v>22.22288</v>
+      </c>
+      <c r="G27" s="7">
+        <v>73.724101000000005</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="6">
+        <v>43.8</v>
+      </c>
+      <c r="J27" s="6">
+        <v>6.1651610625553728</v>
+      </c>
+      <c r="K27" s="6">
         <v>11.497999999999999</v>
       </c>
-      <c r="G27" s="6">
+      <c r="L27" s="6">
         <v>44.993000000000002</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="M27" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="6">
-        <v>71.869119999999995</v>
-      </c>
-      <c r="K27" s="6">
-        <v>6.1651610625553728</v>
-      </c>
-      <c r="L27" s="6">
-        <v>22.22288</v>
-      </c>
-      <c r="M27" s="7">
-        <v>73.724101000000005</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>64</v>
@@ -1953,8 +1952,8 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="N1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
